--- a/Collate hours worked from contractors Reframework/Config/Config.xlsx
+++ b/Collate hours worked from contractors Reframework/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Collate hours worked from contractors Reframework\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EA655D-20AF-414F-A142-F26D18AA5E4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D6232E-9549-4B3F-B43A-1B5DDC5CC346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>C:\\Users\\premal\\Google Drive\\QAC projects\\HR automation\\automation\\HR-Payroll-automation\\Collate hours worked from contractors Reframework\\invoices</t>
   </si>
   <si>
-    <t>C:\\Users\\premal\\Google Drive\\QAC projects\\HR automation\\automation\\HR-Payroll-automation\\Collate hours worked from contractors Reframework\\Database</t>
-  </si>
-  <si>
     <t>C:\\Users\\premal\\Google Drive\\QAC projects\\HR automation\\automation\\HR-Payroll-automation\\Collate hours worked from contractors Reframework\\Database\\International Consultants Template.xlsx</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Mailbox</t>
+  </si>
+  <si>
+    <t>C:\\Users\\premal\\Google Drive\\QAC projects\\HR automation\\automation\\HR-Payroll-automation\\Collate hours worked from contractors Reframework\\Database\\</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -593,7 +593,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
@@ -615,7 +615,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
@@ -639,13 +639,13 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Collate hours worked from contractors Reframework/Config/Config.xlsx
+++ b/Collate hours worked from contractors Reframework/Config/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\premal\Google Drive\QAC projects\HR automation\automation\HR-Payroll-automation\Collate hours worked from contractors Reframework\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D6232E-9549-4B3F-B43A-1B5DDC5CC346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69286BCF-0C38-4C46-8A11-D83170C3A15D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -153,6 +153,15 @@
   </si>
   <si>
     <t>C:\\Users\\premal\\Google Drive\\QAC projects\\HR automation\\automation\\HR-Payroll-automation\\Collate hours worked from contractors Reframework\\Database\\</t>
+  </si>
+  <si>
+    <t>ConsultantTableFilePathAssetName</t>
+  </si>
+  <si>
+    <t>ConsultatTableName</t>
+  </si>
+  <si>
+    <t>The asset name for consultant table filepath, used for the next process</t>
   </si>
 </sst>
 </file>
@@ -532,7 +541,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -648,7 +657,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2758,7 +2777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
